--- a/Price_Study/US/Results/STRAWBERRIES/summary.xlsx
+++ b/Price_Study/US/Results/STRAWBERRIES/summary.xlsx
@@ -429,7 +429,7 @@
         <v>106</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,7 +446,7 @@
         <v>4.516425304662457</v>
       </c>
       <c r="E3">
-        <v>3.292569603756937</v>
+        <v>3.276141612960598</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,7 +463,7 @@
         <v>1.448334487923175</v>
       </c>
       <c r="E4">
-        <v>0.843422169758812</v>
+        <v>0.8515196826842663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -497,7 +497,7 @@
         <v>3.479172913102524</v>
       </c>
       <c r="E6">
-        <v>2.428531587858692</v>
+        <v>2.376860703010635</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +514,7 @@
         <v>4.409248840367555</v>
       </c>
       <c r="E7">
-        <v>3.375831143406409</v>
+        <v>3.306936630275666</v>
       </c>
     </row>
     <row r="8" spans="1:5">
